--- a/downloaded_files/AETS481_Lecture-35203.xlsx
+++ b/downloaded_files/AETS481_Lecture-35203.xlsx
@@ -699,7 +699,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.400625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="51.310625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -1484,7 +1484,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.6832625347</x:v>
+        <x:v>45922.7174671296</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>

--- a/downloaded_files/AETS481_Lecture-35203.xlsx
+++ b/downloaded_files/AETS481_Lecture-35203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -85,15 +85,6 @@
   </x:si>
   <x:si>
     <x:t>Hamza Ahmed Ahmed Fouad Abdelwhab</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1170563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>دنيا مجدى سيد احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Donia Magdy Sayed Ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1200850</x:t>
@@ -389,7 +380,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -689,7 +680,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -972,7 +963,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45909.5111709491</x:v>
+        <x:v>45906.4147916667</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1004,7 +995,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1036,7 +1027,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45909.4752583681</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1068,7 +1059,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.4752583681</x:v>
+        <x:v>45906.5469863773</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1100,7 +1091,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.5469863773</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1132,7 +1123,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1164,7 +1155,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1196,7 +1187,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45906.4193384259</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1228,7 +1219,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4193384259</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1260,7 +1251,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1292,7 +1283,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1324,7 +1315,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1356,7 +1347,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1388,7 +1379,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1420,7 +1411,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1452,7 +1443,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45922.7174671296</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1484,7 +1475,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.7174671296</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1516,7 +1507,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.6666998495</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1548,7 +1539,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4311598727</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1580,7 +1571,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4311598727</x:v>
+        <x:v>45906.4146188657</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1597,38 +1588,6 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45906.4146188657</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/AETS481_Lecture-35203.xlsx
+++ b/downloaded_files/AETS481_Lecture-35203.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -78,6 +78,15 @@
     <x:t>iriny abdou selim</x:t>
   </x:si>
   <x:si>
+    <x:t>1210211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>تسنيم ايمن احمد فوده</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tasneem ayman ahmed abdulbaki fouda</x:t>
+  </x:si>
+  <x:si>
     <x:t>1200405</x:t>
   </x:si>
   <x:si>
@@ -132,6 +141,15 @@
     <x:t>Lina Baheeg Mahrous Baheeg</x:t>
   </x:si>
   <x:si>
+    <x:t>1200437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد كمال عبد الجواد عبد الجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohamed kamal Abdelgawad Abdelgawad</x:t>
+  </x:si>
+  <x:si>
     <x:t>1210293</x:t>
   </x:si>
   <x:si>
@@ -166,6 +184,15 @@
   </x:si>
   <x:si>
     <x:t>Mai Ahmed Abdel-Aziz Abou-Hagar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210117</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مى عبد الحكيم ابراهيم احمد منصور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>May Abdelhakim Ibrahim Ahmed Mansour</x:t>
   </x:si>
   <x:si>
     <x:t>1210418</x:t>
@@ -380,7 +407,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E27" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -680,7 +707,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T27"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -931,7 +958,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4144105671</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -963,7 +990,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.4144105671</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -995,7 +1022,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.4147916667</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1027,7 +1054,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45909.4752583681</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1059,7 +1086,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.5469863773</x:v>
+        <x:v>45909.4752583681</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1091,7 +1118,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45906.5469863773</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1123,7 +1150,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.7060480671</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1155,7 +1182,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.6680953356</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1187,7 +1214,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4193384259</x:v>
+        <x:v>45906.7060480671</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1219,7 +1246,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.6649029745</x:v>
+        <x:v>45906.6680953356</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1251,7 +1278,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4193384259</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1283,7 +1310,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.6650042477</x:v>
+        <x:v>45906.6649029745</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1315,7 +1342,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4153039352</x:v>
+        <x:v>45930.3774885417</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1347,7 +1374,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1379,7 +1406,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.6647642014</x:v>
+        <x:v>45906.6650042477</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1411,7 +1438,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4153039352</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1443,7 +1470,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.7174671296</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1475,7 +1502,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.6647642014</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1507,7 +1534,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.6666998495</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1539,7 +1566,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4311598727</x:v>
+        <x:v>45922.7174671296</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1571,7 +1598,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4146188657</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1588,6 +1615,102 @@
       <x:c r="R27" s="2" t="s"/>
       <x:c r="S27" s="2" t="s"/>
       <x:c r="T27" s="2" t="s"/>
+    </x:row>
+    <x:row r="28" spans="1:20">
+      <x:c r="A28" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B28" s="2" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C28" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="D28" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="E28" s="3">
+        <x:v>45906.6666998495</x:v>
+      </x:c>
+      <x:c r="F28" s="2" t="s"/>
+      <x:c r="G28" s="2" t="s"/>
+      <x:c r="H28" s="2" t="s"/>
+      <x:c r="I28" s="2" t="s"/>
+      <x:c r="J28" s="2" t="s"/>
+      <x:c r="K28" s="2" t="s"/>
+      <x:c r="L28" s="2" t="s"/>
+      <x:c r="M28" s="2" t="s"/>
+      <x:c r="N28" s="2" t="s"/>
+      <x:c r="O28" s="2" t="s"/>
+      <x:c r="P28" s="2" t="s"/>
+      <x:c r="Q28" s="2" t="s"/>
+      <x:c r="R28" s="2" t="s"/>
+      <x:c r="S28" s="2" t="s"/>
+      <x:c r="T28" s="2" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:20">
+      <x:c r="A29" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C29" s="2" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="D29" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="E29" s="3">
+        <x:v>45906.4311598727</x:v>
+      </x:c>
+      <x:c r="F29" s="2" t="s"/>
+      <x:c r="G29" s="2" t="s"/>
+      <x:c r="H29" s="2" t="s"/>
+      <x:c r="I29" s="2" t="s"/>
+      <x:c r="J29" s="2" t="s"/>
+      <x:c r="K29" s="2" t="s"/>
+      <x:c r="L29" s="2" t="s"/>
+      <x:c r="M29" s="2" t="s"/>
+      <x:c r="N29" s="2" t="s"/>
+      <x:c r="O29" s="2" t="s"/>
+      <x:c r="P29" s="2" t="s"/>
+      <x:c r="Q29" s="2" t="s"/>
+      <x:c r="R29" s="2" t="s"/>
+      <x:c r="S29" s="2" t="s"/>
+      <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45906.4146188657</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
